--- a/stocks_database.xlsx
+++ b/stocks_database.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>11.8</v>
+        <v>11</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1280,21 +1280,105 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2939649</v>
+        <v>3677697</v>
       </c>
       <c r="C41" t="n">
-        <v>4100</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>4090</v>
+        <v>12</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3677697</v>
+      </c>
+      <c r="C42" t="n">
+        <v>13</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SUZLON</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3076609</v>
+      </c>
+      <c r="C43" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="D43" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3677697</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ALOKINDS</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4524801</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>17</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
         </is>
       </c>
     </row>

--- a/stocks_database.xlsx
+++ b/stocks_database.xlsx
@@ -1350,14 +1350,14 @@
         <v>3677697</v>
       </c>
       <c r="C44" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="D44" t="n">
         <v>12.3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-25</t>
         </is>
       </c>
     </row>
